--- a/files/Book1.xlsx
+++ b/files/Book1.xlsx
@@ -16,52 +16,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>asdasda</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>asdqed</t>
-  </si>
-  <si>
-    <t>sasdasd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>Biriyani Rice</t>
+  </si>
+  <si>
+    <t>1Kg</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +420,7 @@
     <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,55 +433,124 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44229</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44259</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
